--- a/laserradio/BoM.xlsx
+++ b/laserradio/BoM.xlsx
@@ -593,7 +593,7 @@
     <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1955,7 +1955,7 @@
       <c r="A9" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="11">
         <v>33</v>
       </c>
       <c r="C9" t="s" s="5">
@@ -1987,7 +1987,7 @@
       <c r="A10" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="11">
         <v>38</v>
       </c>
       <c r="C10" t="s" s="5">
@@ -2149,7 +2149,7 @@
       <c r="A15" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="11">
         <v>57</v>
       </c>
       <c r="C15" t="s" s="5">
@@ -2539,7 +2539,7 @@
       <c r="A27" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="11">
         <v>88</v>
       </c>
       <c r="C27" t="s" s="5">
@@ -2701,7 +2701,7 @@
       <c r="A32" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="11">
         <v>104</v>
       </c>
       <c r="C32" t="s" s="5">
@@ -2831,7 +2831,7 @@
       <c r="A36" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="11">
         <v>120</v>
       </c>
       <c r="C36" t="s" s="5">
@@ -2865,7 +2865,7 @@
       <c r="A37" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="11">
         <v>125</v>
       </c>
       <c r="C37" t="s" s="5">
